--- a/uploads/2021_Volunteers_3.xlsx
+++ b/uploads/2021_Volunteers_3.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A9858-EBBC-4FF4-BC16-9382F7778330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8914851-358C-4648-933E-C6E6722017B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer Details" sheetId="1" r:id="rId1"/>
     <sheet name="Volunteer Hours" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +205,18 @@
     <t>cccc</t>
   </si>
   <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Volunteer Hours</t>
   </si>
   <si>
@@ -232,7 +244,7 @@
     <t>Total Hours</t>
   </si>
   <si>
-    <t>dddd</t>
+    <t>dddddddd</t>
   </si>
 </sst>
 </file>
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,9 +1797,10 @@
       <c r="AL12"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>1</v>
-      </c>
+      <c r="A13">
+        <v>10030</v>
+      </c>
+      <c r="B13"/>
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -1801,13 +1814,13 @@
         <v>1677764</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
@@ -1817,6 +1830,335 @@
       </c>
       <c r="L13" t="s">
         <v>43</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10031</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>1677764</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10032</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>1677764</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10034</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>1677764</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10035</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1827,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,12 +2182,13 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1858,7 +2201,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1868,16 +2211,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,19 +2243,19 @@
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" s="9">
         <v>10009</v>
@@ -2173,6 +2516,21 @@
       <c r="C15" t="s">
         <v>58</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2183,6 +2541,171 @@
       </c>
       <c r="C16" t="s">
         <v>58</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10031</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10032</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10034</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10035</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
